--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_8.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_8.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997309445260721</v>
+        <v>0.9462057615837246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8232965308409655</v>
+        <v>0.7218924539605767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8150690909019467</v>
+        <v>0.7515269975766344</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9861234341754209</v>
+        <v>0.9726236365028655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01119950593153892</v>
+        <v>0.1885762720116729</v>
       </c>
       <c r="G2" t="n">
-        <v>1.181616911911124</v>
+        <v>1.859706440933125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6614871389335273</v>
+        <v>0.8887735223759067</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03455935894534076</v>
+        <v>0.08556795011287062</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3983630909570128</v>
+        <v>1.373172861821289</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1058277181627711</v>
+        <v>0.4342536954496448</v>
       </c>
       <c r="L2" t="n">
-        <v>1.172195503313858</v>
+        <v>0.9267482710927314</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1074943989349279</v>
+        <v>0.4410927570585395</v>
       </c>
       <c r="N2" t="n">
-        <v>138.9837712298191</v>
+        <v>37.336505455753</v>
       </c>
       <c r="O2" t="n">
-        <v>280.3189437730355</v>
+        <v>74.30108904397882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.997060517228511</v>
+        <v>0.9461205375410796</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8232795086446966</v>
+        <v>0.7215757295519678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8144516983726322</v>
+        <v>0.7513934972267695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9839533594705122</v>
+        <v>0.9727829099520838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0122356755112031</v>
+        <v>0.1888750257949944</v>
       </c>
       <c r="G3" t="n">
-        <v>1.181730739415955</v>
+        <v>1.861824378511874</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6636955162124095</v>
+        <v>0.8892510453865787</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03996389430468077</v>
+        <v>0.08507012276051108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4196225163854861</v>
+        <v>1.371014690504463</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1106149877331417</v>
+        <v>0.4345975446260533</v>
       </c>
       <c r="L3" t="n">
-        <v>1.188126897375298</v>
+        <v>0.926632221332534</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1123570632155179</v>
+        <v>0.4414420215157533</v>
       </c>
       <c r="N3" t="n">
-        <v>138.8067987444683</v>
+        <v>37.33333944363493</v>
       </c>
       <c r="O3" t="n">
-        <v>280.1419712876847</v>
+        <v>74.29792303186075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9968304127911854</v>
+        <v>0.9458121504207823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8231889850065854</v>
+        <v>0.7204817178883867</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8137882764209304</v>
+        <v>0.751035693043564</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9818790212481954</v>
+        <v>0.9732608727834384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01319349137463027</v>
+        <v>0.1899560801085078</v>
       </c>
       <c r="G4" t="n">
-        <v>1.182336071400827</v>
+        <v>1.869140039543702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6660685380662319</v>
+        <v>0.8905308902032264</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04512999952879245</v>
+        <v>0.08357619535435866</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4370810747168623</v>
+        <v>1.364094489142545</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1148629242820775</v>
+        <v>0.4358395118716382</v>
       </c>
       <c r="L4" t="n">
-        <v>1.202853581364131</v>
+        <v>0.9262122899346822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1166719005187208</v>
+        <v>0.4427035485039444</v>
       </c>
       <c r="N4" t="n">
-        <v>138.6560632973442</v>
+        <v>37.32192478173253</v>
       </c>
       <c r="O4" t="n">
-        <v>279.9912358405606</v>
+        <v>74.28650836995836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9966820995170043</v>
+        <v>0.945699815637823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8231723801042158</v>
+        <v>0.7200969173923034</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8133166753394998</v>
+        <v>0.7509129527775825</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9805236567255081</v>
+        <v>0.9734169576633184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01381084933790405</v>
+        <v>0.1903498708788829</v>
       </c>
       <c r="G5" t="n">
-        <v>1.182447108459431</v>
+        <v>1.871713202232854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6677554277895075</v>
+        <v>0.8909699250177525</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04850551257960511</v>
+        <v>0.08308833423955658</v>
       </c>
       <c r="J5" t="n">
-        <v>0.448117032443817</v>
+        <v>1.361741318746418</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1175195700209291</v>
+        <v>0.4362910391915962</v>
       </c>
       <c r="L5" t="n">
-        <v>1.212345630911727</v>
+        <v>0.9260593234217165</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1193703857722878</v>
+        <v>0.44316218692783</v>
       </c>
       <c r="N5" t="n">
-        <v>138.5646016235872</v>
+        <v>37.31778294897825</v>
       </c>
       <c r="O5" t="n">
-        <v>279.8997741668035</v>
+        <v>74.28236653720407</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9977881915881767</v>
+        <v>0.9455901280168166</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8231719308262975</v>
+        <v>0.7197221694169456</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8159611908377322</v>
+        <v>0.750780986800955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9908228625684323</v>
+        <v>0.9735713399043843</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00920671156249361</v>
+        <v>0.1907343819950207</v>
       </c>
       <c r="G6" t="n">
-        <v>1.182450112782939</v>
+        <v>1.874219143669627</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6582961491901487</v>
+        <v>0.891441959664322</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02285550982841182</v>
+        <v>0.0826057949167857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3498570147257593</v>
+        <v>1.35939140194074</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09595161052579373</v>
+        <v>0.4367314758464527</v>
       </c>
       <c r="L6" t="n">
-        <v>1.141555738356693</v>
+        <v>0.9259099615548141</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09746275247515376</v>
+        <v>0.4436095600197253</v>
       </c>
       <c r="N6" t="n">
-        <v>139.3756450864669</v>
+        <v>37.31374697799573</v>
       </c>
       <c r="O6" t="n">
-        <v>280.7108176296833</v>
+        <v>74.27833056622154</v>
       </c>
     </row>
     <row r="7">
@@ -757,144 +757,144 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9979186908750928</v>
+        <v>0.94470493093944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8230085125305064</v>
+        <v>0.7167703216945056</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8163311609989035</v>
+        <v>0.7495167560878326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9929951310561221</v>
+        <v>0.9748192192728872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008663504796788089</v>
+        <v>0.1938374497168011</v>
       </c>
       <c r="G7" t="n">
-        <v>1.183542891679366</v>
+        <v>1.893958162981592</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6569727873757417</v>
+        <v>0.8959640396208519</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01744551088913879</v>
+        <v>0.07870540545994201</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3248718930629489</v>
+        <v>1.339346009674685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09307795011058252</v>
+        <v>0.440269746538189</v>
       </c>
       <c r="L7" t="n">
-        <v>1.133203783994063</v>
+        <v>0.9247045868111523</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0945438347810095</v>
+        <v>0.4472035549378834</v>
       </c>
       <c r="N7" t="n">
-        <v>139.4972718546713</v>
+        <v>37.28147071840188</v>
       </c>
       <c r="O7" t="n">
-        <v>280.8324443978877</v>
+        <v>74.2460543066277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9983200510178043</v>
+        <v>0.9443367241019408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8222292674950438</v>
+        <v>0.7151633604931096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8174964425867011</v>
+        <v>0.7473124782110123</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9971679573668073</v>
+        <v>0.976211603396796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006992832487706451</v>
+        <v>0.1951282026819699</v>
       </c>
       <c r="G8" t="n">
-        <v>1.188753706819599</v>
+        <v>1.904703919934703</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6528046427030985</v>
+        <v>0.9038486137748635</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007053155596729592</v>
+        <v>0.07435334988963041</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2190445163354569</v>
+        <v>1.320323016597903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08362315760425727</v>
+        <v>0.441733180417738</v>
       </c>
       <c r="L8" t="n">
-        <v>1.107516734860525</v>
+        <v>0.9242031987771109</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08494013874403468</v>
+        <v>0.4486900364381383</v>
       </c>
       <c r="N8" t="n">
-        <v>139.9257391696585</v>
+        <v>37.26819697358521</v>
       </c>
       <c r="O8" t="n">
-        <v>281.2609117128749</v>
+        <v>74.23278056181103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9982856316919838</v>
+        <v>0.9416362492622936</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222081975958113</v>
+        <v>0.7076455691702701</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8173750380286559</v>
+        <v>0.743766420672058</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9966145955938226</v>
+        <v>0.9781129986287296</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00713610385032142</v>
+        <v>0.2045947458084158</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188894601332784</v>
+        <v>1.954975425126777</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6532388997677853</v>
+        <v>0.9165326559794731</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008431293990692663</v>
+        <v>0.06841032197914937</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2505188940335014</v>
+        <v>1.272880897331985</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08447546300744034</v>
+        <v>0.452321507125646</v>
       </c>
       <c r="L9" t="n">
-        <v>1.109719571713036</v>
+        <v>0.9205259564422722</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08580586710532505</v>
+        <v>0.4594451187072522</v>
       </c>
       <c r="N9" t="n">
-        <v>139.8851766615888</v>
+        <v>37.17344821221026</v>
       </c>
       <c r="O9" t="n">
-        <v>281.2203492048052</v>
+        <v>74.13803180043608</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9981957810418389</v>
+        <v>0.9414234265246402</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8218786350024385</v>
+        <v>0.7070981729523711</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8174062315852135</v>
+        <v>0.7434668876098522</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9970195073571259</v>
+        <v>0.9782103811150278</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007510109580277241</v>
+        <v>0.2053407981673218</v>
       </c>
       <c r="G10" t="n">
-        <v>1.191098387912165</v>
+        <v>1.958635866156396</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6531273222246849</v>
+        <v>0.9176040683750583</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007422867904145935</v>
+        <v>0.06810594189848951</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2115825189172791</v>
+        <v>1.269609063902826</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08666088841153916</v>
+        <v>0.4531454492404418</v>
       </c>
       <c r="L10" t="n">
-        <v>1.115470013322309</v>
+        <v>0.9202361552675952</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0880257107749145</v>
+        <v>0.4602820370867161</v>
       </c>
       <c r="N10" t="n">
-        <v>139.7830104441278</v>
+        <v>37.16616850013313</v>
       </c>
       <c r="O10" t="n">
-        <v>281.1181829873442</v>
+        <v>74.13075208835895</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9981042752270671</v>
+        <v>0.9411965005109562</v>
       </c>
       <c r="C11" t="n">
-        <v>0.820587515854766</v>
+        <v>0.7059159731645607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8164450120215107</v>
+        <v>0.7402225840132886</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9972125309315569</v>
+        <v>0.9794891285659679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007891004977180007</v>
+        <v>0.2061362897095919</v>
       </c>
       <c r="G11" t="n">
-        <v>1.199732107597707</v>
+        <v>1.966541241581013</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6565655488693374</v>
+        <v>0.9292087542244357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.006942145866863408</v>
+        <v>0.06410907072527977</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2106353824303786</v>
+        <v>1.251136758511022</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08883132880453837</v>
+        <v>0.4540223449452591</v>
       </c>
       <c r="L11" t="n">
-        <v>1.121326385467704</v>
+        <v>0.9199271496319403</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09023033343445905</v>
+        <v>0.4611727430223102</v>
       </c>
       <c r="N11" t="n">
-        <v>139.6840635574042</v>
+        <v>37.15843545684341</v>
       </c>
       <c r="O11" t="n">
-        <v>281.0192361006206</v>
+        <v>74.12301904506923</v>
       </c>
     </row>
   </sheetData>
